--- a/data_research/systematic_review_files_csv_xls/List of Keywords.xlsx
+++ b/data_research/systematic_review_files_csv_xls/List of Keywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Santos\Desktop\Revisão Sistemática\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\ml-phd-research\data_research\systematic_review_files_csv_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Review_Keywords" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Review_Keywords">Review_Keywords!$A$1:$B$13</definedName>
+    <definedName name="Review_Keywords">Review_Keywords!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>IdKeywords</t>
   </si>
@@ -30,13 +30,6 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>data stream mining_x000D_
-data stream mining</t>
-  </si>
-  <si>
-    <t>ensemble learning</t>
-  </si>
-  <si>
     <t>non-stationary environments</t>
   </si>
   <si>
@@ -58,13 +51,16 @@
     <t>ensemble</t>
   </si>
   <si>
-    <t>random forests</t>
-  </si>
-  <si>
     <t>data mining</t>
   </si>
   <si>
-    <t>data stream classification</t>
+    <t>data stream mining_x000D_</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>random forest</t>
   </si>
 </sst>
 </file>
@@ -108,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -117,6 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,96 +442,88 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
